--- a/data/trans_orig/P36BPD04_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD04_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>19397</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10783</v>
+        <v>12060</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32789</v>
+        <v>33259</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03522750769401104</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01958393748224685</v>
+        <v>0.02190296045634123</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05954955702370576</v>
+        <v>0.06040329232392785</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -762,19 +762,19 @@
         <v>25935</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18122</v>
+        <v>17470</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37396</v>
+        <v>37714</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.05310041523522487</v>
+        <v>0.05310041523522486</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0371045120939144</v>
+        <v>0.03576947210571601</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07656620083342247</v>
+        <v>0.07721748754480891</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>47</v>
@@ -783,19 +783,19 @@
         <v>45332</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32607</v>
+        <v>33509</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>61356</v>
+        <v>62361</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04362892991339243</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03138228502304969</v>
+        <v>0.03225050402929972</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05905107099272532</v>
+        <v>0.060018183480601</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>103974</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>85641</v>
+        <v>86902</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>124544</v>
+        <v>127373</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1888320363805008</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1555369314228099</v>
+        <v>0.1578260210811697</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2261897728359483</v>
+        <v>0.2313281543773715</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>93</v>
@@ -833,19 +833,19 @@
         <v>70355</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>56467</v>
+        <v>57496</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>85718</v>
+        <v>84796</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1440478908252353</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1156138914108599</v>
+        <v>0.1177208474172453</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1755029719687266</v>
+        <v>0.1736163052637095</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>193</v>
@@ -854,19 +854,19 @@
         <v>174329</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>152335</v>
+        <v>152945</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>202341</v>
+        <v>200811</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1677805921945782</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1466130299368914</v>
+        <v>0.1471996146574349</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1947409227416277</v>
+        <v>0.1932679185504179</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>320653</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>297451</v>
+        <v>295402</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>346772</v>
+        <v>345505</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5823502685268263</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5402129372406962</v>
+        <v>0.5364924467814212</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.62978643650857</v>
+        <v>0.6274851501227994</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>399</v>
@@ -904,19 +904,19 @@
         <v>279142</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>259624</v>
+        <v>258103</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>297132</v>
+        <v>297982</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5715315826976766</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5315694029799555</v>
+        <v>0.5284535553944609</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6083647070180721</v>
+        <v>0.6101046536617662</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>726</v>
@@ -925,19 +925,19 @@
         <v>599795</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>567121</v>
+        <v>566282</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>628964</v>
+        <v>626499</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.5772647866431466</v>
+        <v>0.5772647866431465</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5458187390476186</v>
+        <v>0.5450106285260432</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6053382158893069</v>
+        <v>0.6029656736604618</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>106594</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>89682</v>
+        <v>87810</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>126756</v>
+        <v>125893</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1935901873986619</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1628751281357178</v>
+        <v>0.159475137377875</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2302076432896452</v>
+        <v>0.2286389382874017</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>163</v>
@@ -975,19 +975,19 @@
         <v>112979</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>97077</v>
+        <v>97969</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>130392</v>
+        <v>129658</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2313201112418633</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1987599331746152</v>
+        <v>0.20058674264207</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2669711159705284</v>
+        <v>0.2654686672027771</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>274</v>
@@ -996,19 +996,19 @@
         <v>219574</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>196454</v>
+        <v>196411</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>244039</v>
+        <v>246922</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2113256912488828</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1890742432252466</v>
+        <v>0.1890331133054793</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2348726049540453</v>
+        <v>0.2376472879155966</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>30697</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>19043</v>
+        <v>19582</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45862</v>
+        <v>46014</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06352768177139605</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0394094810450366</v>
+        <v>0.04052393544402969</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09491081500890861</v>
+        <v>0.0952243343992057</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>33</v>
@@ -1121,19 +1121,19 @@
         <v>26851</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>18482</v>
+        <v>19624</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>39427</v>
+        <v>40648</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.06345595253081812</v>
+        <v>0.06345595253081811</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04367882356308596</v>
+        <v>0.04637647039924232</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09317716580168216</v>
+        <v>0.09606216639928152</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>58</v>
@@ -1142,19 +1142,19 @@
         <v>57548</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>43296</v>
+        <v>42868</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>74932</v>
+        <v>74540</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06349419410315651</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04776948455066938</v>
+        <v>0.04729684684326777</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08267375430861126</v>
+        <v>0.08224173280506174</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>79794</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>64928</v>
+        <v>65520</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>98214</v>
+        <v>98572</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1651316213451822</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1343673458715366</v>
+        <v>0.1355932135494753</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2032532389539887</v>
+        <v>0.203994152115778</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>93</v>
@@ -1192,19 +1192,19 @@
         <v>66472</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>54850</v>
+        <v>53354</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>80557</v>
+        <v>79819</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1570919109739015</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.129624099525991</v>
+        <v>0.1260893158346613</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1903766400588263</v>
+        <v>0.1886326454047922</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>173</v>
@@ -1213,19 +1213,19 @@
         <v>146266</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>126021</v>
+        <v>127063</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>167873</v>
+        <v>167219</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1613781847900737</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1390413818865693</v>
+        <v>0.1401909659425763</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1852178564293811</v>
+        <v>0.1844964180935862</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>278921</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>254547</v>
+        <v>255583</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>301822</v>
+        <v>302286</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5772218706596377</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5267819851638141</v>
+        <v>0.5289260678673838</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6246166757036061</v>
+        <v>0.6255764812887344</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>331</v>
@@ -1263,19 +1263,19 @@
         <v>237880</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>219693</v>
+        <v>220312</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>254925</v>
+        <v>253609</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.5621728971818986</v>
+        <v>0.5621728971818987</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5191927437587603</v>
+        <v>0.5206552896679922</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6024563657305079</v>
+        <v>0.5993469004827847</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>616</v>
@@ -1284,19 +1284,19 @@
         <v>516800</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>486368</v>
+        <v>490070</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>543595</v>
+        <v>544480</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5701960743859336</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5366199511628583</v>
+        <v>0.5407043439756561</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5997596017779547</v>
+        <v>0.6007356857711046</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>93801</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>75084</v>
+        <v>76982</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>112367</v>
+        <v>113138</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.194118826223784</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1553848733128157</v>
+        <v>0.1593125716228173</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2325428032338503</v>
+        <v>0.2341366578716249</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>133</v>
@@ -1334,19 +1334,19 @@
         <v>91940</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>78660</v>
+        <v>77788</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>106654</v>
+        <v>108680</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2172792393133816</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1858935144604294</v>
+        <v>0.1838341563290872</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.25205074820757</v>
+        <v>0.2568391102065885</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>224</v>
@@ -1355,19 +1355,19 @@
         <v>185741</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>165359</v>
+        <v>163571</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>211811</v>
+        <v>211397</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2049315467208362</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1824439834695214</v>
+        <v>0.1804717615369475</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.233695939086902</v>
+        <v>0.2332381211105255</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>26848</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17873</v>
+        <v>17605</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>38833</v>
+        <v>39828</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05692819891844979</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03789867560347923</v>
+        <v>0.03732986824338153</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08234091802533555</v>
+        <v>0.08445162798462542</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -1480,19 +1480,19 @@
         <v>6097</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3073</v>
+        <v>2897</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11250</v>
+        <v>11423</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03261558933038134</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0164377716103358</v>
+        <v>0.01549569372075981</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06018183339189481</v>
+        <v>0.0611102417715078</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>33</v>
@@ -1501,19 +1501,19 @@
         <v>32945</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>23583</v>
+        <v>23484</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>47810</v>
+        <v>46575</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05002699161611191</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03581064494467468</v>
+        <v>0.03566042896661911</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07260071530138229</v>
+        <v>0.07072441149893126</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>83019</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>67590</v>
+        <v>66095</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>103941</v>
+        <v>100949</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1760319250251065</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1433169240546432</v>
+        <v>0.1401468926312895</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2203949543238592</v>
+        <v>0.2140499840987382</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>42</v>
@@ -1551,19 +1551,19 @@
         <v>26933</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>20002</v>
+        <v>19542</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>36129</v>
+        <v>35871</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1440808897072808</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.10700445854068</v>
+        <v>0.104544747032662</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1932766635812699</v>
+        <v>0.1918987730244924</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>121</v>
@@ -1572,19 +1572,19 @@
         <v>109952</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>92169</v>
+        <v>91218</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>130244</v>
+        <v>128886</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1669625276223346</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1399589731547761</v>
+        <v>0.1385162113005878</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1977774718844993</v>
+        <v>0.1957154864208741</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>251261</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>228031</v>
+        <v>227786</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>273164</v>
+        <v>273764</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.532771558895884</v>
+        <v>0.5327715588958839</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4835136333530191</v>
+        <v>0.4829948122199674</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5792133440639743</v>
+        <v>0.5804865070474642</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>152</v>
@@ -1622,19 +1622,19 @@
         <v>97428</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>86541</v>
+        <v>85017</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>109816</v>
+        <v>107935</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.5212025263497341</v>
+        <v>0.521202526349734</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4629594316829257</v>
+        <v>0.4548092514137043</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.587474531355881</v>
+        <v>0.57741228813129</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>426</v>
@@ -1643,19 +1643,19 @@
         <v>348689</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>323492</v>
+        <v>324874</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>374241</v>
+        <v>373659</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5294876542373048</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4912255919788467</v>
+        <v>0.4933247131337527</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5682887334845022</v>
+        <v>0.5674047708607418</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>110484</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>92452</v>
+        <v>91770</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>132198</v>
+        <v>131083</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2342683171605598</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1960350566743389</v>
+        <v>0.1945879711274056</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2803110693546125</v>
+        <v>0.2779462545767944</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>85</v>
@@ -1693,19 +1693,19 @@
         <v>56471</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>45830</v>
+        <v>46409</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>67329</v>
+        <v>67346</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.3021009946126038</v>
+        <v>0.3021009946126037</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2451730810363893</v>
+        <v>0.2482702342170883</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.36018750387272</v>
+        <v>0.3602734768460229</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>196</v>
@@ -1714,19 +1714,19 @@
         <v>166955</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>143323</v>
+        <v>145973</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>188786</v>
+        <v>188895</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2535228265242487</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2176370078763619</v>
+        <v>0.2216615540811364</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2866735684267072</v>
+        <v>0.2868389871022847</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>75618</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>58354</v>
+        <v>59573</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>98270</v>
+        <v>96034</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.06687586874703808</v>
+        <v>0.0668758687470381</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0516078887671991</v>
+        <v>0.05268606330260249</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08690924685194065</v>
+        <v>0.08493101173603317</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>69</v>
@@ -1839,19 +1839,19 @@
         <v>55584</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>42821</v>
+        <v>42591</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>70321</v>
+        <v>69063</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06462605252263406</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04978760069946229</v>
+        <v>0.04952035068083283</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08176046241115467</v>
+        <v>0.08029846365585878</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>134</v>
@@ -1860,19 +1860,19 @@
         <v>131202</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>110633</v>
+        <v>108923</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>156428</v>
+        <v>153791</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06590388881926121</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05557211416647927</v>
+        <v>0.05471288143487252</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07857522683740735</v>
+        <v>0.0772504755954499</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>200817</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>175751</v>
+        <v>173435</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>233335</v>
+        <v>232122</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1775998673506241</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1554325382525023</v>
+        <v>0.1533840562875865</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2063589579705599</v>
+        <v>0.2052862585049538</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>196</v>
@@ -1910,19 +1910,19 @@
         <v>139395</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>120181</v>
+        <v>122588</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>159828</v>
+        <v>159838</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.1620718150889973</v>
+        <v>0.1620718150889974</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.13973266928749</v>
+        <v>0.1425307811009501</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1858297668210354</v>
+        <v>0.1858410500484475</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>382</v>
@@ -1931,19 +1931,19 @@
         <v>340211</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>309940</v>
+        <v>305985</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>378640</v>
+        <v>378903</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.1708913393597346</v>
+        <v>0.1708913393597347</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1556857488244834</v>
+        <v>0.1536990669938177</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1901943537404688</v>
+        <v>0.1903265976105633</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>614476</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>577982</v>
+        <v>576897</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>653298</v>
+        <v>651761</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5434351118697873</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.511160959183186</v>
+        <v>0.5102012957571915</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5777687822417049</v>
+        <v>0.5764098782262086</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>704</v>
@@ -1981,19 +1981,19 @@
         <v>497476</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>471413</v>
+        <v>470359</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>522641</v>
+        <v>521850</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.5784069513662679</v>
+        <v>0.578406951366268</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5481034081362096</v>
+        <v>0.5468787292126264</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6076653494561031</v>
+        <v>0.6067463078841308</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1334</v>
@@ -2002,19 +2002,19 @@
         <v>1111952</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1062987</v>
+        <v>1066441</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1150646</v>
+        <v>1156099</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5585438686025814</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5339482782307757</v>
+        <v>0.5356834127661417</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5779803361263999</v>
+        <v>0.5807193475444155</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>239815</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>209196</v>
+        <v>208402</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>272638</v>
+        <v>271095</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2120891520325505</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1850108515084445</v>
+        <v>0.1843083310493252</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2411180593686065</v>
+        <v>0.2397529724767681</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>259</v>
@@ -2052,19 +2052,19 @@
         <v>167625</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>147696</v>
+        <v>148569</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>189234</v>
+        <v>188372</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1948951810221006</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1717237993613235</v>
+        <v>0.1727380057650021</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2200196262050446</v>
+        <v>0.2190168102610695</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>495</v>
@@ -2073,19 +2073,19 @@
         <v>407440</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>372036</v>
+        <v>370141</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>445016</v>
+        <v>446173</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2046609032184226</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1868772888141736</v>
+        <v>0.1859253330551235</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2235358315910909</v>
+        <v>0.2241168216221862</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>38271</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>26480</v>
+        <v>26057</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>53219</v>
+        <v>54546</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.06751118837403858</v>
+        <v>0.06751118837403855</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04671172428200333</v>
+        <v>0.0459653413274926</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09387970650663038</v>
+        <v>0.09622134799756719</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>56</v>
@@ -2198,19 +2198,19 @@
         <v>41303</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>31224</v>
+        <v>31742</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>51884</v>
+        <v>53914</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04974374102522591</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03760592976446449</v>
+        <v>0.03822884627723545</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06248755210918436</v>
+        <v>0.06493221785639548</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>89</v>
@@ -2219,19 +2219,19 @@
         <v>79573</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>64703</v>
+        <v>62570</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>100517</v>
+        <v>99280</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.05695253654023055</v>
+        <v>0.05695253654023053</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04630915465880012</v>
+        <v>0.04478312204053973</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07194261546312709</v>
+        <v>0.07105730694727752</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>104537</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>87063</v>
+        <v>87156</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>126501</v>
+        <v>124322</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1844072266969803</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1535822170983742</v>
+        <v>0.1537468204547671</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2231523606800215</v>
+        <v>0.2193087569590761</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>191</v>
@@ -2269,19 +2269,19 @@
         <v>124884</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>106087</v>
+        <v>108686</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>142291</v>
+        <v>143493</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1504070771421523</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1277680372118894</v>
+        <v>0.1308985195556181</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1713722645600191</v>
+        <v>0.172819110884228</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>296</v>
@@ -2290,19 +2290,19 @@
         <v>229421</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>204754</v>
+        <v>203704</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>257959</v>
+        <v>257879</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1642019752391325</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1465469281255606</v>
+        <v>0.145795958242153</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1846269349617282</v>
+        <v>0.1845702247581422</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>311553</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>283854</v>
+        <v>284017</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>335095</v>
+        <v>336948</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.54959014119075</v>
+        <v>0.5495901411907499</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5007285619952254</v>
+        <v>0.5010152548098669</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5911202904019773</v>
+        <v>0.5943878379933588</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>802</v>
@@ -2340,19 +2340,19 @@
         <v>507836</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>484794</v>
+        <v>483092</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>534668</v>
+        <v>531655</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6116254142746191</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5838738368777743</v>
+        <v>0.5818241842999805</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6439413967901769</v>
+        <v>0.6403123408477223</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1113</v>
@@ -2361,19 +2361,19 @@
         <v>819389</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>784699</v>
+        <v>783473</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>855266</v>
+        <v>856818</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.5864558111459532</v>
+        <v>0.5864558111459531</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5616276793860288</v>
+        <v>0.5607500356099109</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6121340826337801</v>
+        <v>0.6132446035074042</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>112521</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>90913</v>
+        <v>92719</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>135164</v>
+        <v>138143</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1984914437382312</v>
+        <v>0.1984914437382311</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1603734752579523</v>
+        <v>0.1635603361685252</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2384347294115963</v>
+        <v>0.2436896516558764</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>240</v>
@@ -2411,19 +2411,19 @@
         <v>156283</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>137557</v>
+        <v>138923</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>176311</v>
+        <v>176426</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1882237675580026</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1656706644174326</v>
+        <v>0.1673152236333547</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2123449474463222</v>
+        <v>0.2124830576949912</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>337</v>
@@ -2432,19 +2432,19 @@
         <v>268805</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>239342</v>
+        <v>239604</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>300523</v>
+        <v>299374</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1923896770746839</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.171302784394807</v>
+        <v>0.1714904658824501</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.21509152340188</v>
+        <v>0.2142690735257429</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>10824</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3932</v>
+        <v>3024</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>25817</v>
+        <v>25988</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.04562817142687007</v>
+        <v>0.04562817142687006</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01657387557649208</v>
+        <v>0.01274611488199998</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1088259455239575</v>
+        <v>0.1095498560031157</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>41</v>
@@ -2557,19 +2557,19 @@
         <v>37476</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>26912</v>
+        <v>26734</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>53885</v>
+        <v>52706</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04440926241335839</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03189115457052883</v>
+        <v>0.03167994343397172</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06385351481576582</v>
+        <v>0.06245621051913342</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>46</v>
@@ -2578,19 +2578,19 @@
         <v>48300</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>33732</v>
+        <v>34468</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>66383</v>
+        <v>67299</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.04467672763996478</v>
+        <v>0.0446767276399648</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03120142961198377</v>
+        <v>0.03188243870860372</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06140294045280609</v>
+        <v>0.06224972020914716</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>48708</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>32852</v>
+        <v>32393</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>70060</v>
+        <v>70710</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2053226370550671</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1384825835981561</v>
+        <v>0.1365468732339469</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2953292744965664</v>
+        <v>0.298067901082368</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>158</v>
@@ -2628,19 +2628,19 @@
         <v>128126</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>107708</v>
+        <v>108786</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>152857</v>
+        <v>150200</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1518296541031648</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1276342795217031</v>
+        <v>0.1289115417709923</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1811351385552462</v>
+        <v>0.1779873610671625</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>181</v>
@@ -2649,19 +2649,19 @@
         <v>176834</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>150716</v>
+        <v>148648</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>206068</v>
+        <v>205844</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1635676203077654</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1394088651414074</v>
+        <v>0.1374960806230919</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1906078342102777</v>
+        <v>0.1904004909112261</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>131263</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>106594</v>
+        <v>105508</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>155425</v>
+        <v>153408</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.5533187263226336</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.449331302671454</v>
+        <v>0.4447554991136579</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6551702057258675</v>
+        <v>0.6466697263552507</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>735</v>
@@ -2699,19 +2699,19 @@
         <v>522488</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>491744</v>
+        <v>494484</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>550859</v>
+        <v>548923</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.6191493138574451</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.5827175413839484</v>
+        <v>0.5859637223896643</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.6527686239688713</v>
+        <v>0.6504746320203136</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>801</v>
@@ -2720,19 +2720,19 @@
         <v>653751</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>617672</v>
+        <v>617736</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>689088</v>
+        <v>692274</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.6047041068588487</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.5713319277895</v>
+        <v>0.5713909004884468</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.6373901675837982</v>
+        <v>0.6403368912204924</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>46433</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>27228</v>
+        <v>28789</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>70662</v>
+        <v>72862</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1957304651954292</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1147772387256456</v>
+        <v>0.1213544241412595</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2978654500164649</v>
+        <v>0.307138676325925</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>224</v>
@@ -2770,19 +2770,19 @@
         <v>155790</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>136377</v>
+        <v>135230</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>181279</v>
+        <v>180360</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1846117696260317</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1616066478649993</v>
+        <v>0.1602482018008471</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2148159115580834</v>
+        <v>0.213726504471638</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>242</v>
@@ -2791,19 +2791,19 @@
         <v>202223</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>175126</v>
+        <v>172643</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>234835</v>
+        <v>235689</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1870515451934211</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1619871407502783</v>
+        <v>0.1596906397684547</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2172163111037003</v>
+        <v>0.2180068482729136</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>201656</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>170984</v>
+        <v>166895</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>234972</v>
+        <v>234023</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.05861610349037295</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.04970060495819026</v>
+        <v>0.04851212648241507</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.06830040992668417</v>
+        <v>0.06802454568990658</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>239</v>
@@ -2916,19 +2916,19 @@
         <v>193245</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>168882</v>
+        <v>167758</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>218980</v>
+        <v>219447</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.05319518629016868</v>
+        <v>0.05319518629016867</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.04648872842840694</v>
+        <v>0.04617937379017547</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.06027953213779633</v>
+        <v>0.06040799424350907</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>407</v>
@@ -2937,19 +2937,19 @@
         <v>394900</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>357856</v>
+        <v>357506</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>437622</v>
+        <v>442972</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.05583188699891434</v>
+        <v>0.05583188699891433</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05059443291393177</v>
+        <v>0.05054499250959524</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.06187197852516352</v>
+        <v>0.06262842284039567</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>620849</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>573396</v>
+        <v>576020</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>670295</v>
+        <v>667453</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1804647383444868</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1666716220067251</v>
+        <v>0.1674341183964317</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1948374984598988</v>
+        <v>0.1940113700118276</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>773</v>
@@ -2987,19 +2987,19 @@
         <v>556165</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>513300</v>
+        <v>514691</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>595150</v>
+        <v>598114</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1530974074383088</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1412978371711728</v>
+        <v>0.1416808493262077</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1638290493283255</v>
+        <v>0.1646448635504832</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1346</v>
@@ -3008,19 +3008,19 @@
         <v>1177013</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1111275</v>
+        <v>1117698</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1246737</v>
+        <v>1250809</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1664087084842051</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1571144689396606</v>
+        <v>0.1580226067667217</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.176266446459487</v>
+        <v>0.1768420654086645</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>1908125</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1843793</v>
+        <v>1849783</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1973620</v>
+        <v>1972883</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.5546430332685286</v>
+        <v>0.5546430332685285</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.5359434096387889</v>
+        <v>0.5376844142010401</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5736805950060456</v>
+        <v>0.5734664877464768</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>3123</v>
@@ -3058,19 +3058,19 @@
         <v>2142251</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2093900</v>
+        <v>2088043</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2198292</v>
+        <v>2195064</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.5897049304283174</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.576395223240653</v>
+        <v>0.5747828815631628</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.6051316348397735</v>
+        <v>0.604242954885187</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>5016</v>
@@ -3079,19 +3079,19 @@
         <v>4050376</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>3961182</v>
+        <v>3960171</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>4133937</v>
+        <v>4131812</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.5726510397900876</v>
+        <v>0.5726510397900877</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.5600406350616222</v>
+        <v>0.5598977031254058</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5844650711191307</v>
+        <v>0.5841647274080001</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>709647</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>657664</v>
+        <v>655960</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>769596</v>
+        <v>765053</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.2062761248966117</v>
+        <v>0.2062761248966118</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1911659329651282</v>
+        <v>0.1906708031250165</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2237019626474484</v>
+        <v>0.2223812896950882</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1104</v>
@@ -3129,19 +3129,19 @@
         <v>741090</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>699747</v>
+        <v>699622</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>783406</v>
+        <v>782822</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2040024758432052</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1926218095483973</v>
+        <v>0.1925875103380779</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2156510897558195</v>
+        <v>0.2154902586470892</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1768</v>
@@ -3150,19 +3150,19 @@
         <v>1450737</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1383193</v>
+        <v>1382199</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1520209</v>
+        <v>1519811</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.205108364726793</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1955589324908189</v>
+        <v>0.1954183837308608</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2149304614744273</v>
+        <v>0.2148742283060925</v>
       </c>
     </row>
     <row r="38">
